--- a/labelled_csv_files/labelled_M_0213_10y10m_1_fa.xlsx
+++ b/labelled_csv_files/labelled_M_0213_10y10m_1_fa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shababayub/go/src/github.com/s4ayub/fydp/labelled_csv_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rahul/Documents/fydp/labelled_csv_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AAC2408D-CB7E-424D-9F9F-41259F3DEDB8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{2976FBB9-FC83-394C-8594-287DDAD5BEE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="15360" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="labelled_M_0213_10y10m_1_fa" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="606" uniqueCount="334">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="605" uniqueCount="333">
   <si>
     <t>title</t>
   </si>
@@ -349,9 +349,6 @@
   </si>
   <si>
     <t>UM,</t>
-  </si>
-  <si>
-    <t>alignment is off</t>
   </si>
   <si>
     <t>p000001s000001w000056</t>
@@ -1032,7 +1029,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1169,9 +1166,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1875,11 +1870,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G201"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49:K50"/>
+    <sheetView tabSelected="1" topLeftCell="B186" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2841,7 +2836,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2861,7 +2856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2881,7 +2876,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2892,7 +2887,7 @@
         <v>28.175000000000001</v>
       </c>
       <c r="D51">
-        <v>29.42</v>
+        <v>28.42</v>
       </c>
       <c r="E51" t="s">
         <v>97</v>
@@ -2901,7 +2896,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2909,10 +2904,10 @@
         <v>98</v>
       </c>
       <c r="C52">
-        <v>29.42</v>
+        <v>28.42</v>
       </c>
       <c r="D52" s="1">
-        <v>29.84</v>
+        <v>28.84</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>99</v>
@@ -2921,18 +2916,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>100</v>
       </c>
-      <c r="C53">
-        <v>29.84</v>
+      <c r="C53" s="1">
+        <v>28.84</v>
       </c>
       <c r="D53" s="1">
-        <v>31.765000000000001</v>
+        <v>29.265000000000001</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>101</v>
@@ -2941,18 +2936,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>102</v>
       </c>
-      <c r="C54">
-        <v>31.765000000000001</v>
+      <c r="C54" s="1">
+        <v>29.265000000000001</v>
       </c>
       <c r="D54" s="1">
-        <v>34.96</v>
+        <v>30.96</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>103</v>
@@ -2961,18 +2956,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>104</v>
       </c>
-      <c r="C55">
-        <v>34.96</v>
+      <c r="C55" s="1">
+        <v>30.96</v>
       </c>
       <c r="D55" s="1">
-        <v>35.4</v>
+        <v>31.4</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>105</v>
@@ -2981,7 +2976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3000,16 +2995,13 @@
       <c r="F56" t="s">
         <v>65</v>
       </c>
-      <c r="G56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C57">
         <v>36.555</v>
@@ -3018,18 +3010,18 @@
         <v>38.994999999999997</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58">
         <v>38.994999999999997</v>
@@ -3038,18 +3030,18 @@
         <v>39.094999999999999</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59">
         <v>39.094999999999999</v>
@@ -3064,12 +3056,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C60">
         <v>39.15</v>
@@ -3084,12 +3076,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61">
         <v>39.225000000000001</v>
@@ -3098,18 +3090,18 @@
         <v>40.164999999999999</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C62">
         <v>40.164999999999999</v>
@@ -3118,18 +3110,18 @@
         <v>44.53</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63">
         <v>44.53</v>
@@ -3144,12 +3136,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C64">
         <v>44.755000000000003</v>
@@ -3158,7 +3150,7 @@
         <v>45.384999999999998</v>
       </c>
       <c r="E64" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F64" t="s">
         <v>65</v>
@@ -3169,7 +3161,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C65">
         <v>45.384999999999998</v>
@@ -3189,7 +3181,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66">
         <v>46.094999999999999</v>
@@ -3198,7 +3190,7 @@
         <v>48.405000000000001</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F66" t="s">
         <v>11</v>
@@ -3209,7 +3201,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C67">
         <v>48.405000000000001</v>
@@ -3218,7 +3210,7 @@
         <v>48.445</v>
       </c>
       <c r="E67" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F67" t="s">
         <v>65</v>
@@ -3229,7 +3221,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68">
         <v>48.445</v>
@@ -3238,7 +3230,7 @@
         <v>48.445</v>
       </c>
       <c r="E68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F68" t="s">
         <v>65</v>
@@ -3249,7 +3241,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69">
         <v>48.445</v>
@@ -3269,7 +3261,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C70">
         <v>48.445</v>
@@ -3278,7 +3270,7 @@
         <v>48.445</v>
       </c>
       <c r="E70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F70" t="s">
         <v>65</v>
@@ -3289,7 +3281,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C71">
         <v>48.445</v>
@@ -3309,7 +3301,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C72">
         <v>48.5</v>
@@ -3318,7 +3310,7 @@
         <v>48.534999999999997</v>
       </c>
       <c r="E72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F72" t="s">
         <v>65</v>
@@ -3329,7 +3321,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C73">
         <v>48.534999999999997</v>
@@ -3338,7 +3330,7 @@
         <v>48.93</v>
       </c>
       <c r="E73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F73" t="s">
         <v>65</v>
@@ -3349,7 +3341,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C74">
         <v>48.93</v>
@@ -3358,7 +3350,7 @@
         <v>49.645000000000003</v>
       </c>
       <c r="E74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F74" t="s">
         <v>65</v>
@@ -3369,7 +3361,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C75">
         <v>49.645000000000003</v>
@@ -3378,7 +3370,7 @@
         <v>55.145000000000003</v>
       </c>
       <c r="E75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F75" t="s">
         <v>65</v>
@@ -3389,7 +3381,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C76">
         <v>55.145000000000003</v>
@@ -3398,7 +3390,7 @@
         <v>55.335000000000001</v>
       </c>
       <c r="E76" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F76" t="s">
         <v>17</v>
@@ -3409,7 +3401,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C77">
         <v>55.335000000000001</v>
@@ -3418,7 +3410,7 @@
         <v>55.695</v>
       </c>
       <c r="E77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F77" t="s">
         <v>17</v>
@@ -3429,7 +3421,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C78">
         <v>55.695</v>
@@ -3438,7 +3430,7 @@
         <v>55.835000000000001</v>
       </c>
       <c r="E78" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F78" t="s">
         <v>17</v>
@@ -3449,7 +3441,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C79">
         <v>55.835000000000001</v>
@@ -3458,7 +3450,7 @@
         <v>56.005000000000003</v>
       </c>
       <c r="E79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F79" t="s">
         <v>17</v>
@@ -3469,7 +3461,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C80">
         <v>56.005000000000003</v>
@@ -3478,7 +3470,7 @@
         <v>57.005000000000003</v>
       </c>
       <c r="E80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F80" t="s">
         <v>11</v>
@@ -3489,7 +3481,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81">
         <v>57.005000000000003</v>
@@ -3498,7 +3490,7 @@
         <v>59.22</v>
       </c>
       <c r="E81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F81" t="s">
         <v>17</v>
@@ -3509,7 +3501,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C82">
         <v>59.22</v>
@@ -3529,7 +3521,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C83">
         <v>60.155000000000001</v>
@@ -3538,7 +3530,7 @@
         <v>60.32</v>
       </c>
       <c r="E83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F83" t="s">
         <v>65</v>
@@ -3549,7 +3541,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C84">
         <v>60.32</v>
@@ -3569,7 +3561,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C85">
         <v>60.96</v>
@@ -3578,7 +3570,7 @@
         <v>61.134999999999998</v>
       </c>
       <c r="E85" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F85" t="s">
         <v>17</v>
@@ -3589,7 +3581,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86">
         <v>61.134999999999998</v>
@@ -3609,7 +3601,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C87">
         <v>61.54</v>
@@ -3618,7 +3610,7 @@
         <v>61.65</v>
       </c>
       <c r="E87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F87" t="s">
         <v>17</v>
@@ -3629,7 +3621,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C88">
         <v>61.65</v>
@@ -3638,7 +3630,7 @@
         <v>62.064999999999998</v>
       </c>
       <c r="E88" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F88" t="s">
         <v>17</v>
@@ -3649,7 +3641,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C89">
         <v>62.064999999999998</v>
@@ -3658,7 +3650,7 @@
         <v>62.18</v>
       </c>
       <c r="E89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F89" t="s">
         <v>17</v>
@@ -3669,7 +3661,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C90">
         <v>62.18</v>
@@ -3678,7 +3670,7 @@
         <v>63.375</v>
       </c>
       <c r="E90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F90" t="s">
         <v>95</v>
@@ -3689,7 +3681,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C91">
         <v>63.375</v>
@@ -3698,7 +3690,7 @@
         <v>64.864999999999995</v>
       </c>
       <c r="E91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F91" t="s">
         <v>7</v>
@@ -3709,7 +3701,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C92">
         <v>64.864999999999995</v>
@@ -3718,7 +3710,7 @@
         <v>65.12</v>
       </c>
       <c r="E92" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F92" t="s">
         <v>7</v>
@@ -3729,7 +3721,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C93">
         <v>65.12</v>
@@ -3738,7 +3730,7 @@
         <v>65.2</v>
       </c>
       <c r="E93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F93" t="s">
         <v>17</v>
@@ -3749,7 +3741,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C94">
         <v>65.2</v>
@@ -3758,7 +3750,7 @@
         <v>65.534999999999997</v>
       </c>
       <c r="E94" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F94" t="s">
         <v>17</v>
@@ -3769,7 +3761,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C95">
         <v>65.534999999999997</v>
@@ -3778,7 +3770,7 @@
         <v>65.87</v>
       </c>
       <c r="E95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F95" t="s">
         <v>17</v>
@@ -3789,7 +3781,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C96">
         <v>65.87</v>
@@ -3798,7 +3790,7 @@
         <v>66.295000000000002</v>
       </c>
       <c r="E96" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F96" t="s">
         <v>17</v>
@@ -3809,7 +3801,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97">
         <v>66.295000000000002</v>
@@ -3818,7 +3810,7 @@
         <v>67.734999999999999</v>
       </c>
       <c r="E97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F97" t="s">
         <v>17</v>
@@ -3829,7 +3821,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C98">
         <v>67.734999999999999</v>
@@ -3838,7 +3830,7 @@
         <v>67.819999999999993</v>
       </c>
       <c r="E98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F98" t="s">
         <v>17</v>
@@ -3849,7 +3841,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C99">
         <v>67.819999999999993</v>
@@ -3858,7 +3850,7 @@
         <v>68.92</v>
       </c>
       <c r="E99" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F99" t="s">
         <v>17</v>
@@ -3869,7 +3861,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C100">
         <v>68.92</v>
@@ -3878,7 +3870,7 @@
         <v>69.155000000000001</v>
       </c>
       <c r="E100" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F100" t="s">
         <v>17</v>
@@ -3889,7 +3881,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C101">
         <v>69.155000000000001</v>
@@ -3898,7 +3890,7 @@
         <v>69.814999999999998</v>
       </c>
       <c r="E101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F101" t="s">
         <v>17</v>
@@ -3909,7 +3901,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C102">
         <v>69.814999999999998</v>
@@ -3929,7 +3921,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C103">
         <v>70.125</v>
@@ -3938,7 +3930,7 @@
         <v>70.28</v>
       </c>
       <c r="E103" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F103" t="s">
         <v>17</v>
@@ -3949,7 +3941,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C104">
         <v>70.28</v>
@@ -3969,7 +3961,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105">
         <v>70.495000000000005</v>
@@ -3978,7 +3970,7 @@
         <v>70.605000000000004</v>
       </c>
       <c r="E105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F105" t="s">
         <v>17</v>
@@ -3989,7 +3981,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C106">
         <v>70.605000000000004</v>
@@ -3998,7 +3990,7 @@
         <v>70.87</v>
       </c>
       <c r="E106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F106" t="s">
         <v>17</v>
@@ -4009,7 +4001,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C107">
         <v>70.87</v>
@@ -4018,7 +4010,7 @@
         <v>71.025000000000006</v>
       </c>
       <c r="E107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F107" t="s">
         <v>17</v>
@@ -4029,7 +4021,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C108">
         <v>71.025000000000006</v>
@@ -4038,7 +4030,7 @@
         <v>72.534999999999997</v>
       </c>
       <c r="E108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F108" t="s">
         <v>17</v>
@@ -4049,7 +4041,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C109">
         <v>72.534999999999997</v>
@@ -4058,10 +4050,10 @@
         <v>72.775000000000006</v>
       </c>
       <c r="E109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F109" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -4069,7 +4061,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C110">
         <v>72.775000000000006</v>
@@ -4078,10 +4070,10 @@
         <v>73.125</v>
       </c>
       <c r="E110" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F110" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -4089,7 +4081,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C111">
         <v>73.125</v>
@@ -4098,10 +4090,10 @@
         <v>74.034999999999997</v>
       </c>
       <c r="E111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F111" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -4109,7 +4101,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C112">
         <v>74.034999999999997</v>
@@ -4118,10 +4110,10 @@
         <v>74.435000000000002</v>
       </c>
       <c r="E112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F112" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -4129,7 +4121,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C113">
         <v>74.435000000000002</v>
@@ -4138,7 +4130,7 @@
         <v>75.275000000000006</v>
       </c>
       <c r="E113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F113" t="s">
         <v>17</v>
@@ -4149,7 +4141,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C114">
         <v>75.275000000000006</v>
@@ -4169,7 +4161,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C115">
         <v>75.504999999999995</v>
@@ -4178,7 +4170,7 @@
         <v>75.64</v>
       </c>
       <c r="E115" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F115" t="s">
         <v>17</v>
@@ -4189,7 +4181,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C116">
         <v>75.64</v>
@@ -4198,7 +4190,7 @@
         <v>75.930000000000007</v>
       </c>
       <c r="E116" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F116" t="s">
         <v>17</v>
@@ -4209,7 +4201,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C117">
         <v>75.930000000000007</v>
@@ -4218,7 +4210,7 @@
         <v>76.924999999999997</v>
       </c>
       <c r="E117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F117" t="s">
         <v>17</v>
@@ -4229,7 +4221,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C118">
         <v>76.924999999999997</v>
@@ -4249,7 +4241,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C119">
         <v>77.31</v>
@@ -4258,7 +4250,7 @@
         <v>78.430000000000007</v>
       </c>
       <c r="E119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F119" t="s">
         <v>17</v>
@@ -4269,7 +4261,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C120">
         <v>78.430000000000007</v>
@@ -4278,7 +4270,7 @@
         <v>78.694999999999993</v>
       </c>
       <c r="E120" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F120" t="s">
         <v>17</v>
@@ -4289,7 +4281,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C121">
         <v>78.694999999999993</v>
@@ -4298,7 +4290,7 @@
         <v>79.040000000000006</v>
       </c>
       <c r="E121" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F121" t="s">
         <v>17</v>
@@ -4309,7 +4301,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C122">
         <v>79.040000000000006</v>
@@ -4318,7 +4310,7 @@
         <v>81.484999999999999</v>
       </c>
       <c r="E122" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F122" t="s">
         <v>17</v>
@@ -4329,7 +4321,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C123">
         <v>81.484999999999999</v>
@@ -4341,7 +4333,7 @@
         <v>6</v>
       </c>
       <c r="F123" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -4349,7 +4341,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C124">
         <v>82.015000000000001</v>
@@ -4358,10 +4350,10 @@
         <v>82.314999999999998</v>
       </c>
       <c r="E124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F124" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -4369,7 +4361,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C125">
         <v>82.314999999999998</v>
@@ -4381,7 +4373,7 @@
         <v>14</v>
       </c>
       <c r="F125" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -4389,7 +4381,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C126">
         <v>82.355000000000004</v>
@@ -4401,7 +4393,7 @@
         <v>6</v>
       </c>
       <c r="F126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -4409,7 +4401,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C127">
         <v>82.525000000000006</v>
@@ -4418,10 +4410,10 @@
         <v>82.92</v>
       </c>
       <c r="E127" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F127" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -4429,7 +4421,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C128">
         <v>82.92</v>
@@ -4438,7 +4430,7 @@
         <v>84.39</v>
       </c>
       <c r="E128" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F128" t="s">
         <v>17</v>
@@ -4449,7 +4441,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C129">
         <v>84.39</v>
@@ -4458,7 +4450,7 @@
         <v>84.85</v>
       </c>
       <c r="E129" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F129" t="s">
         <v>17</v>
@@ -4469,7 +4461,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C130">
         <v>84.85</v>
@@ -4478,7 +4470,7 @@
         <v>84.92</v>
       </c>
       <c r="E130" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F130" t="s">
         <v>11</v>
@@ -4489,7 +4481,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C131">
         <v>84.92</v>
@@ -4498,7 +4490,7 @@
         <v>85.435000000000002</v>
       </c>
       <c r="E131" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F131" t="s">
         <v>11</v>
@@ -4509,7 +4501,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C132">
         <v>85.435000000000002</v>
@@ -4518,7 +4510,7 @@
         <v>86.44</v>
       </c>
       <c r="E132" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F132" t="s">
         <v>11</v>
@@ -4529,7 +4521,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C133">
         <v>86.44</v>
@@ -4538,7 +4530,7 @@
         <v>87.305000000000007</v>
       </c>
       <c r="E133" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F133" t="s">
         <v>17</v>
@@ -4549,7 +4541,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C134">
         <v>87.305000000000007</v>
@@ -4558,7 +4550,7 @@
         <v>88.01</v>
       </c>
       <c r="E134" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F134" t="s">
         <v>17</v>
@@ -4569,7 +4561,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C135">
         <v>88.01</v>
@@ -4578,7 +4570,7 @@
         <v>89.004999999999995</v>
       </c>
       <c r="E135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F135" t="s">
         <v>17</v>
@@ -4589,7 +4581,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C136">
         <v>89.004999999999995</v>
@@ -4598,7 +4590,7 @@
         <v>89.19</v>
       </c>
       <c r="E136" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F136" t="s">
         <v>17</v>
@@ -4609,7 +4601,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C137">
         <v>89.19</v>
@@ -4618,7 +4610,7 @@
         <v>91.545000000000002</v>
       </c>
       <c r="E137" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F137" t="s">
         <v>17</v>
@@ -4629,7 +4621,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C138">
         <v>91.545000000000002</v>
@@ -4638,7 +4630,7 @@
         <v>92.305000000000007</v>
       </c>
       <c r="E138" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F138" t="s">
         <v>17</v>
@@ -4649,7 +4641,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C139">
         <v>92.305000000000007</v>
@@ -4658,7 +4650,7 @@
         <v>92.405000000000001</v>
       </c>
       <c r="E139" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F139" t="s">
         <v>17</v>
@@ -4669,7 +4661,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C140">
         <v>92.405000000000001</v>
@@ -4678,7 +4670,7 @@
         <v>92.795000000000002</v>
       </c>
       <c r="E140" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F140" t="s">
         <v>17</v>
@@ -4689,7 +4681,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C141">
         <v>92.795000000000002</v>
@@ -4709,7 +4701,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C142">
         <v>92.924999999999997</v>
@@ -4718,7 +4710,7 @@
         <v>93.364999999999995</v>
       </c>
       <c r="E142" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F142" t="s">
         <v>17</v>
@@ -4729,7 +4721,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C143">
         <v>93.364999999999995</v>
@@ -4738,7 +4730,7 @@
         <v>95.575000000000003</v>
       </c>
       <c r="E143" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F143" t="s">
         <v>17</v>
@@ -4749,7 +4741,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C144">
         <v>95.575000000000003</v>
@@ -4758,7 +4750,7 @@
         <v>95.95</v>
       </c>
       <c r="E144" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F144" t="s">
         <v>11</v>
@@ -4769,7 +4761,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C145">
         <v>95.95</v>
@@ -4778,7 +4770,7 @@
         <v>96.625</v>
       </c>
       <c r="E145" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F145" t="s">
         <v>17</v>
@@ -4789,7 +4781,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C146">
         <v>96.625</v>
@@ -4798,7 +4790,7 @@
         <v>96.924999999999997</v>
       </c>
       <c r="E146" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F146" t="s">
         <v>7</v>
@@ -4809,7 +4801,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C147">
         <v>96.924999999999997</v>
@@ -4818,7 +4810,7 @@
         <v>97.71</v>
       </c>
       <c r="E147" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F147" t="s">
         <v>7</v>
@@ -4829,7 +4821,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C148">
         <v>97.71</v>
@@ -4849,7 +4841,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C149">
         <v>97.81</v>
@@ -4858,7 +4850,7 @@
         <v>98.765000000000001</v>
       </c>
       <c r="E149" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F149" t="s">
         <v>17</v>
@@ -4869,7 +4861,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C150">
         <v>98.765000000000001</v>
@@ -4878,7 +4870,7 @@
         <v>99.594999999999999</v>
       </c>
       <c r="E150" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F150" t="s">
         <v>11</v>
@@ -4889,7 +4881,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C151">
         <v>99.594999999999999</v>
@@ -4898,7 +4890,7 @@
         <v>99.88</v>
       </c>
       <c r="E151" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F151" t="s">
         <v>17</v>
@@ -4909,7 +4901,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C152">
         <v>99.88</v>
@@ -4918,7 +4910,7 @@
         <v>100.15</v>
       </c>
       <c r="E152" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F152" t="s">
         <v>17</v>
@@ -4929,7 +4921,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C153">
         <v>100.15</v>
@@ -4949,7 +4941,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C154">
         <v>102.36499999999999</v>
@@ -4958,7 +4950,7 @@
         <v>102.77500000000001</v>
       </c>
       <c r="E154" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F154" t="s">
         <v>7</v>
@@ -4969,7 +4961,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C155">
         <v>102.77500000000001</v>
@@ -4978,7 +4970,7 @@
         <v>102.99</v>
       </c>
       <c r="E155" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F155" t="s">
         <v>7</v>
@@ -4989,7 +4981,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C156">
         <v>102.99</v>
@@ -4998,7 +4990,7 @@
         <v>102.995</v>
       </c>
       <c r="E156" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F156" t="s">
         <v>17</v>
@@ -5009,7 +5001,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C157">
         <v>102.995</v>
@@ -5018,7 +5010,7 @@
         <v>103.88</v>
       </c>
       <c r="E157" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F157" t="s">
         <v>7</v>
@@ -5029,7 +5021,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C158">
         <v>103.88</v>
@@ -5038,7 +5030,7 @@
         <v>104.125</v>
       </c>
       <c r="E158" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F158" t="s">
         <v>7</v>
@@ -5049,7 +5041,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C159">
         <v>104.125</v>
@@ -5058,7 +5050,7 @@
         <v>104.855</v>
       </c>
       <c r="E159" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F159" t="s">
         <v>11</v>
@@ -5069,7 +5061,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C160">
         <v>104.855</v>
@@ -5078,7 +5070,7 @@
         <v>105.575</v>
       </c>
       <c r="E160" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F160" t="s">
         <v>7</v>
@@ -5089,7 +5081,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C161">
         <v>105.575</v>
@@ -5098,7 +5090,7 @@
         <v>107.24</v>
       </c>
       <c r="E161" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F161" t="s">
         <v>11</v>
@@ -5109,7 +5101,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C162">
         <v>107.24</v>
@@ -5118,7 +5110,7 @@
         <v>107.52500000000001</v>
       </c>
       <c r="E162" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F162" t="s">
         <v>7</v>
@@ -5129,7 +5121,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C163">
         <v>107.52500000000001</v>
@@ -5138,7 +5130,7 @@
         <v>107.74</v>
       </c>
       <c r="E163" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F163" t="s">
         <v>17</v>
@@ -5149,7 +5141,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C164">
         <v>107.74</v>
@@ -5158,7 +5150,7 @@
         <v>110.3</v>
       </c>
       <c r="E164" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F164" t="s">
         <v>17</v>
@@ -5169,7 +5161,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C165">
         <v>110.3</v>
@@ -5178,7 +5170,7 @@
         <v>110.52</v>
       </c>
       <c r="E165" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F165" t="s">
         <v>17</v>
@@ -5189,7 +5181,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C166">
         <v>110.52</v>
@@ -5209,7 +5201,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C167">
         <v>111.405</v>
@@ -5218,7 +5210,7 @@
         <v>112.075</v>
       </c>
       <c r="E167" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F167" t="s">
         <v>7</v>
@@ -5229,7 +5221,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C168">
         <v>112.075</v>
@@ -5238,7 +5230,7 @@
         <v>112.625</v>
       </c>
       <c r="E168" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F168" t="s">
         <v>7</v>
@@ -5249,7 +5241,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C169">
         <v>112.625</v>
@@ -5258,7 +5250,7 @@
         <v>113.075</v>
       </c>
       <c r="E169" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F169" t="s">
         <v>17</v>
@@ -5269,7 +5261,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C170">
         <v>113.075</v>
@@ -5278,7 +5270,7 @@
         <v>113.715</v>
       </c>
       <c r="E170" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F170" t="s">
         <v>17</v>
@@ -5289,7 +5281,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C171">
         <v>113.715</v>
@@ -5309,7 +5301,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C172">
         <v>114.255</v>
@@ -5318,7 +5310,7 @@
         <v>114.575</v>
       </c>
       <c r="E172" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F172" t="s">
         <v>17</v>
@@ -5329,7 +5321,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C173">
         <v>114.575</v>
@@ -5338,7 +5330,7 @@
         <v>115.31</v>
       </c>
       <c r="E173" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F173" t="s">
         <v>11</v>
@@ -5349,7 +5341,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C174">
         <v>115.31</v>
@@ -5358,7 +5350,7 @@
         <v>115.47</v>
       </c>
       <c r="E174" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F174" t="s">
         <v>11</v>
@@ -5369,7 +5361,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C175">
         <v>115.47</v>
@@ -5378,7 +5370,7 @@
         <v>115.96</v>
       </c>
       <c r="E175" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F175" t="s">
         <v>17</v>
@@ -5389,7 +5381,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C176">
         <v>115.96</v>
@@ -5398,7 +5390,7 @@
         <v>118.26</v>
       </c>
       <c r="E176" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F176" t="s">
         <v>17</v>
@@ -5409,7 +5401,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C177">
         <v>118.26</v>
@@ -5429,7 +5421,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C178">
         <v>118.495</v>
@@ -5438,7 +5430,7 @@
         <v>119.55</v>
       </c>
       <c r="E178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F178" t="s">
         <v>17</v>
@@ -5449,7 +5441,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C179">
         <v>119.55</v>
@@ -5458,7 +5450,7 @@
         <v>120.91500000000001</v>
       </c>
       <c r="E179" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F179" t="s">
         <v>17</v>
@@ -5469,7 +5461,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C180">
         <v>120.91500000000001</v>
@@ -5489,7 +5481,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C181">
         <v>121.62</v>
@@ -5498,7 +5490,7 @@
         <v>122.145</v>
       </c>
       <c r="E181" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F181" t="s">
         <v>17</v>
@@ -5509,7 +5501,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C182">
         <v>122.145</v>
@@ -5518,7 +5510,7 @@
         <v>123.125</v>
       </c>
       <c r="E182" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F182" t="s">
         <v>11</v>
@@ -5529,7 +5521,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C183">
         <v>123.125</v>
@@ -5549,7 +5541,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C184">
         <v>123.38</v>
@@ -5569,7 +5561,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C185">
         <v>123.38</v>
@@ -5589,7 +5581,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C186">
         <v>123.38</v>
@@ -5609,7 +5601,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C187">
         <v>123.38</v>
@@ -5629,7 +5621,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C188">
         <v>123.38</v>
@@ -5649,7 +5641,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C189">
         <v>123.38</v>
@@ -5669,7 +5661,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C190">
         <v>123.38</v>
@@ -5689,7 +5681,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C191">
         <v>123.38</v>
@@ -5709,7 +5701,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C192">
         <v>123.38</v>
@@ -5729,7 +5721,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C193">
         <v>123.38</v>
@@ -5749,7 +5741,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C194">
         <v>123.38</v>
@@ -5769,7 +5761,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C195">
         <v>123.38</v>
@@ -5789,7 +5781,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C196">
         <v>123.72</v>
@@ -5798,7 +5790,7 @@
         <v>124.11</v>
       </c>
       <c r="E196" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F196" t="s">
         <v>17</v>
@@ -5809,7 +5801,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C197">
         <v>124.11</v>
@@ -5818,7 +5810,7 @@
         <v>124.23</v>
       </c>
       <c r="E197" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F197" t="s">
         <v>11</v>
@@ -5829,7 +5821,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C198">
         <v>124.23</v>
@@ -5838,7 +5830,7 @@
         <v>124.69499999999999</v>
       </c>
       <c r="E198" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F198" t="s">
         <v>17</v>
@@ -5849,7 +5841,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C199">
         <v>124.69499999999999</v>
@@ -5858,7 +5850,7 @@
         <v>124.80500000000001</v>
       </c>
       <c r="E199" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F199" t="s">
         <v>11</v>
@@ -5869,7 +5861,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C200">
         <v>124.80500000000001</v>
@@ -5878,7 +5870,7 @@
         <v>124.985</v>
       </c>
       <c r="E200" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F200" t="s">
         <v>17</v>
@@ -5889,7 +5881,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C201">
         <v>124.985</v>
@@ -5898,7 +5890,7 @@
         <v>125.72</v>
       </c>
       <c r="E201" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F201" t="s">
         <v>17</v>
